--- a/data/pca/factorExposure/factorExposure_2011-03-18.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-03-18.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,18 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,33 +735,57 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>0.008834211287520327</v>
+        <v>-0.01456251218463166</v>
       </c>
       <c r="C2">
-        <v>0.00142171687589622</v>
+        <v>0.007228524812065134</v>
       </c>
       <c r="D2">
-        <v>0.02945201763746273</v>
+        <v>0.01073950112533277</v>
       </c>
       <c r="E2">
-        <v>0.00160595456877189</v>
+        <v>0.006730049030933892</v>
       </c>
       <c r="F2">
-        <v>-0.008319388176548358</v>
+        <v>-0.0252819256845273</v>
       </c>
       <c r="G2">
-        <v>-0.01750256739114642</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.0002433083778778193</v>
+      </c>
+      <c r="H2">
+        <v>-0.009308491356394263</v>
+      </c>
+      <c r="I2">
+        <v>0.005882374073610473</v>
+      </c>
+      <c r="J2">
+        <v>0.06860964317640486</v>
+      </c>
+      <c r="K2">
+        <v>0.03629923098352317</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -769,33 +805,57 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>0.105531416092359</v>
+        <v>-0.1185216272221889</v>
       </c>
       <c r="C4">
-        <v>-0.02246175759537393</v>
+        <v>0.05391242376229596</v>
       </c>
       <c r="D4">
-        <v>0.05108926410520916</v>
+        <v>-0.001761555833089613</v>
       </c>
       <c r="E4">
-        <v>0.05646174521060336</v>
+        <v>-0.0002980692503494408</v>
       </c>
       <c r="F4">
-        <v>0.03138894999673798</v>
+        <v>-0.02142478664336805</v>
       </c>
       <c r="G4">
-        <v>-0.02962078382123271</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.0656357594145246</v>
+      </c>
+      <c r="H4">
+        <v>-0.1381197211928949</v>
+      </c>
+      <c r="I4">
+        <v>0.0434285488142095</v>
+      </c>
+      <c r="J4">
+        <v>-0.05131885020762281</v>
+      </c>
+      <c r="K4">
+        <v>0.009783305017136023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,263 +875,407 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>0.129124971862641</v>
+        <v>-0.1237302787279922</v>
       </c>
       <c r="C6">
-        <v>-0.02613864082816401</v>
+        <v>0.005838536277387147</v>
       </c>
       <c r="D6">
-        <v>0.0109002998090625</v>
+        <v>0.005453994969670564</v>
       </c>
       <c r="E6">
-        <v>0.01600867910588531</v>
+        <v>-0.03338929508732322</v>
       </c>
       <c r="F6">
-        <v>-0.1663617781269424</v>
+        <v>0.009479313284461072</v>
       </c>
       <c r="G6">
-        <v>0.1411801031122441</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.05789658199031977</v>
+      </c>
+      <c r="H6">
+        <v>-0.04736446997420646</v>
+      </c>
+      <c r="I6">
+        <v>-0.1796798449567688</v>
+      </c>
+      <c r="J6">
+        <v>-0.3344522941623295</v>
+      </c>
+      <c r="K6">
+        <v>-0.1138706071238836</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>0.08876169461330057</v>
+        <v>-0.08005761408721296</v>
       </c>
       <c r="C7">
-        <v>-0.03863771440046451</v>
+        <v>0.05952415300225426</v>
       </c>
       <c r="D7">
-        <v>0.04691249190747718</v>
+        <v>0.02573855796184836</v>
       </c>
       <c r="E7">
-        <v>0.02071237386516501</v>
+        <v>0.004083026351816425</v>
       </c>
       <c r="F7">
-        <v>-0.02290505598161475</v>
+        <v>-0.04410462881151106</v>
       </c>
       <c r="G7">
-        <v>-0.01447234390539911</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.01507631573177102</v>
+      </c>
+      <c r="H7">
+        <v>-0.0401008630761742</v>
+      </c>
+      <c r="I7">
+        <v>0.02675016419546787</v>
+      </c>
+      <c r="J7">
+        <v>0.01400288942194402</v>
+      </c>
+      <c r="K7">
+        <v>0.01111990075642879</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>0.04149770662880382</v>
+        <v>-0.05203560942073023</v>
       </c>
       <c r="C8">
-        <v>0.03043166661976159</v>
+        <v>0.0148946581111799</v>
       </c>
       <c r="D8">
-        <v>0.0908862894783331</v>
+        <v>0.01480111644704249</v>
       </c>
       <c r="E8">
-        <v>0.08833689349904296</v>
+        <v>0.004271036699611167</v>
       </c>
       <c r="F8">
-        <v>0.002992129417535664</v>
+        <v>-0.01375130633440551</v>
       </c>
       <c r="G8">
-        <v>-0.1397558429102209</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.09124884830972214</v>
+      </c>
+      <c r="H8">
+        <v>-0.12058200721302</v>
+      </c>
+      <c r="I8">
+        <v>0.0008569812828085572</v>
+      </c>
+      <c r="J8">
+        <v>-0.04297178486745718</v>
+      </c>
+      <c r="K8">
+        <v>-0.01947551026057383</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>0.09412220710723311</v>
+        <v>-0.09043978354208219</v>
       </c>
       <c r="C9">
-        <v>-0.0376515416281727</v>
+        <v>0.0532600753459755</v>
       </c>
       <c r="D9">
-        <v>0.03795702484501771</v>
+        <v>0.008538483853055182</v>
       </c>
       <c r="E9">
-        <v>0.04573599702469738</v>
+        <v>0.01088896380335525</v>
       </c>
       <c r="F9">
-        <v>0.01305277693746471</v>
+        <v>-0.01877634538857238</v>
       </c>
       <c r="G9">
-        <v>-0.07743321061388393</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.0591893305885434</v>
+      </c>
+      <c r="H9">
+        <v>-0.115172260704373</v>
+      </c>
+      <c r="I9">
+        <v>0.01667096639890759</v>
+      </c>
+      <c r="J9">
+        <v>-0.009975873096626108</v>
+      </c>
+      <c r="K9">
+        <v>-0.01724258244535034</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>0.03640999742226111</v>
+        <v>-0.08542043869259122</v>
       </c>
       <c r="C10">
-        <v>0.1573889717419866</v>
+        <v>-0.179006370716361</v>
       </c>
       <c r="D10">
-        <v>0.08526605336589564</v>
+        <v>-0.02657850961235357</v>
       </c>
       <c r="E10">
-        <v>0.02315852725362568</v>
+        <v>0.01143019110093247</v>
       </c>
       <c r="F10">
-        <v>-0.02096674558041409</v>
+        <v>-0.06235712878396806</v>
       </c>
       <c r="G10">
-        <v>0.00199186873069863</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.003285219636850573</v>
+      </c>
+      <c r="H10">
+        <v>0.005852754766194105</v>
+      </c>
+      <c r="I10">
+        <v>0.009891639266592903</v>
+      </c>
+      <c r="J10">
+        <v>-0.03304799654440672</v>
+      </c>
+      <c r="K10">
+        <v>-0.01794441446827585</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>0.07618215588726077</v>
+        <v>-0.079991579277879</v>
       </c>
       <c r="C11">
-        <v>-0.06184763536598169</v>
+        <v>0.05920889361414816</v>
       </c>
       <c r="D11">
-        <v>0.01520316361450492</v>
+        <v>0.01721239978992884</v>
       </c>
       <c r="E11">
-        <v>-0.0112807952923939</v>
+        <v>0.02606316139180193</v>
       </c>
       <c r="F11">
-        <v>-0.01126172480684901</v>
+        <v>0.008042125503420081</v>
       </c>
       <c r="G11">
-        <v>-0.1621436488596958</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.06462898026821591</v>
+      </c>
+      <c r="H11">
+        <v>-0.1161636130346954</v>
+      </c>
+      <c r="I11">
+        <v>-0.001901569521285331</v>
+      </c>
+      <c r="J11">
+        <v>0.09816666665452696</v>
+      </c>
+      <c r="K11">
+        <v>-0.04137727482898801</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>0.07225324112875463</v>
+        <v>-0.08069609894912221</v>
       </c>
       <c r="C12">
-        <v>-0.04137769772838042</v>
+        <v>0.06665619073754071</v>
       </c>
       <c r="D12">
-        <v>0.008392580454174797</v>
+        <v>0.02781454829545333</v>
       </c>
       <c r="E12">
-        <v>0.02897044028245872</v>
+        <v>0.05098243281848312</v>
       </c>
       <c r="F12">
-        <v>-0.02363732104639306</v>
+        <v>0.004609368252543634</v>
       </c>
       <c r="G12">
-        <v>-0.1480808534793942</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.08214611644072707</v>
+      </c>
+      <c r="H12">
+        <v>-0.1032251217829841</v>
+      </c>
+      <c r="I12">
+        <v>-0.02072744065644214</v>
+      </c>
+      <c r="J12">
+        <v>0.08012724632493716</v>
+      </c>
+      <c r="K12">
+        <v>-0.02386033005306802</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>0.06295502518920593</v>
+        <v>-0.04142235578078</v>
       </c>
       <c r="C13">
-        <v>-0.0005267084171290854</v>
+        <v>0.02547120994216989</v>
       </c>
       <c r="D13">
-        <v>0.01457359314056606</v>
+        <v>0.01593632722835739</v>
       </c>
       <c r="E13">
-        <v>0.01445510638807673</v>
+        <v>-0.01450093494338268</v>
       </c>
       <c r="F13">
-        <v>0.0376306347273934</v>
+        <v>-0.0173280383808169</v>
       </c>
       <c r="G13">
-        <v>-0.06231635041332598</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.04685600627728957</v>
+      </c>
+      <c r="H13">
+        <v>-0.05149044133294975</v>
+      </c>
+      <c r="I13">
+        <v>-0.01436586257173528</v>
+      </c>
+      <c r="J13">
+        <v>-0.07033935879091871</v>
+      </c>
+      <c r="K13">
+        <v>0.02474290435316075</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>0.05194354359136896</v>
+        <v>-0.04080207051040002</v>
       </c>
       <c r="C14">
-        <v>-0.005511381823900426</v>
+        <v>0.01055409807752716</v>
       </c>
       <c r="D14">
-        <v>0.04788468016003775</v>
+        <v>-0.01302115716110731</v>
       </c>
       <c r="E14">
-        <v>0.02071228611389416</v>
+        <v>0.01601224703739794</v>
       </c>
       <c r="F14">
-        <v>0.009152395588223327</v>
+        <v>-0.001673837363724629</v>
       </c>
       <c r="G14">
-        <v>-0.04952954053963941</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.03957112811424841</v>
+      </c>
+      <c r="H14">
+        <v>-0.04720077188798044</v>
+      </c>
+      <c r="I14">
+        <v>0.0686483138986535</v>
+      </c>
+      <c r="J14">
+        <v>-0.06057486149745524</v>
+      </c>
+      <c r="K14">
+        <v>-0.04070110861661097</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>0.03650460796462458</v>
+        <v>-0.0234006275357235</v>
       </c>
       <c r="C15">
-        <v>0.01063043289194828</v>
+        <v>0.004650812983171176</v>
       </c>
       <c r="D15">
-        <v>0.02049011686719649</v>
+        <v>0.007101715192898751</v>
       </c>
       <c r="E15">
-        <v>0.0008345075541953279</v>
+        <v>-0.02808621983290734</v>
       </c>
       <c r="F15">
-        <v>0.003567276839796013</v>
+        <v>-0.02468599326159076</v>
       </c>
       <c r="G15">
-        <v>-0.01864462014765032</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>-0.00994103948755851</v>
+      </c>
+      <c r="H15">
+        <v>-0.006500560510128408</v>
+      </c>
+      <c r="I15">
+        <v>0.0143899392874625</v>
+      </c>
+      <c r="J15">
+        <v>-0.05610270165667013</v>
+      </c>
+      <c r="K15">
+        <v>-0.003750460816931379</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>0.0798858953517627</v>
+        <v>-0.0858722406259303</v>
       </c>
       <c r="C16">
-        <v>-0.07072525144553933</v>
+        <v>0.06801422029559492</v>
       </c>
       <c r="D16">
-        <v>0.02283393462292797</v>
+        <v>0.0235544110114791</v>
       </c>
       <c r="E16">
-        <v>0.02714731839155958</v>
+        <v>0.02942633679421365</v>
       </c>
       <c r="F16">
-        <v>0.03356374502796073</v>
+        <v>0.005150500523282957</v>
       </c>
       <c r="G16">
-        <v>-0.1266018712652774</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.09306852294502978</v>
+      </c>
+      <c r="H16">
+        <v>-0.09996205307135493</v>
+      </c>
+      <c r="I16">
+        <v>0.002911289324923901</v>
+      </c>
+      <c r="J16">
+        <v>0.1126698999156097</v>
+      </c>
+      <c r="K16">
+        <v>-0.05855227575985401</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1295,22 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,10 +1330,22 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1137,171 +1365,267 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>0.05167008755489483</v>
+        <v>-0.05055618359922494</v>
       </c>
       <c r="C20">
-        <v>-0.02356254936349972</v>
+        <v>0.03549262687104848</v>
       </c>
       <c r="D20">
-        <v>0.01772473299816965</v>
+        <v>-0.01293518532443826</v>
       </c>
       <c r="E20">
-        <v>0.0201047526420005</v>
+        <v>-0.008237686299529869</v>
       </c>
       <c r="F20">
-        <v>-0.003516978001517315</v>
+        <v>-0.01451985032642464</v>
       </c>
       <c r="G20">
-        <v>-0.1137891288215345</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.03915241409779849</v>
+      </c>
+      <c r="H20">
+        <v>-0.0529147056900925</v>
+      </c>
+      <c r="I20">
+        <v>0.02771551754219577</v>
+      </c>
+      <c r="J20">
+        <v>-0.02996480344346117</v>
+      </c>
+      <c r="K20">
+        <v>-0.01052048213309935</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>0.02604392591138951</v>
+        <v>-0.0293732597328399</v>
       </c>
       <c r="C21">
-        <v>-0.04005267733579092</v>
+        <v>0.01254204189092589</v>
       </c>
       <c r="D21">
-        <v>-0.0003074125931082385</v>
+        <v>-0.03115824390643133</v>
       </c>
       <c r="E21">
-        <v>0.01906786525228516</v>
+        <v>-0.008090495922270534</v>
       </c>
       <c r="F21">
-        <v>-0.07095847380291152</v>
+        <v>0.01467539966868696</v>
       </c>
       <c r="G21">
-        <v>0.09528433878179503</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.03778648822862654</v>
+      </c>
+      <c r="H21">
+        <v>-0.0704861385950718</v>
+      </c>
+      <c r="I21">
+        <v>0.001756393525310017</v>
+      </c>
+      <c r="J21">
+        <v>-0.0717538020342529</v>
+      </c>
+      <c r="K21">
+        <v>0.05922182790803394</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>0.04142458976989012</v>
+        <v>-0.03532208035915615</v>
       </c>
       <c r="C22">
-        <v>-0.0123979014062708</v>
+        <v>-0.0008037828657612694</v>
       </c>
       <c r="D22">
-        <v>0.01712672562795508</v>
+        <v>0.08299279759234013</v>
       </c>
       <c r="E22">
-        <v>0.5492421852351369</v>
+        <v>-0.5560561427035317</v>
       </c>
       <c r="F22">
-        <v>0.1819116764739261</v>
+        <v>-0.322266206443409</v>
       </c>
       <c r="G22">
-        <v>0.3013730746820387</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>-0.1388026874497595</v>
+      </c>
+      <c r="H22">
+        <v>0.1346168275151009</v>
+      </c>
+      <c r="I22">
+        <v>-0.0334755353336157</v>
+      </c>
+      <c r="J22">
+        <v>0.08577349962464813</v>
+      </c>
+      <c r="K22">
+        <v>-0.005879100233613197</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>0.0415262181984371</v>
+        <v>-0.0355220375507479</v>
       </c>
       <c r="C23">
-        <v>-0.01291867545713522</v>
+        <v>-0.000357970619231094</v>
       </c>
       <c r="D23">
-        <v>0.01883653475350322</v>
+        <v>0.08409473280912579</v>
       </c>
       <c r="E23">
-        <v>0.5481886029204553</v>
+        <v>-0.5580357223293192</v>
       </c>
       <c r="F23">
-        <v>0.1824082547513853</v>
+        <v>-0.3232242896015289</v>
       </c>
       <c r="G23">
-        <v>0.3021276679443755</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>-0.1398896771069118</v>
+      </c>
+      <c r="H23">
+        <v>0.1310201730789431</v>
+      </c>
+      <c r="I23">
+        <v>-0.03232229255809242</v>
+      </c>
+      <c r="J23">
+        <v>0.08423017018902537</v>
+      </c>
+      <c r="K23">
+        <v>-0.009193179893240044</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>0.08356791848510763</v>
+        <v>-0.08784302692884768</v>
       </c>
       <c r="C24">
-        <v>-0.05009022419213826</v>
+        <v>0.06020477290504032</v>
       </c>
       <c r="D24">
-        <v>0.02753405873599399</v>
+        <v>0.009292274908070426</v>
       </c>
       <c r="E24">
-        <v>0.02988684285186189</v>
+        <v>0.02598896127381617</v>
       </c>
       <c r="F24">
-        <v>-0.01287263463312168</v>
+        <v>-0.001871821807142623</v>
       </c>
       <c r="G24">
-        <v>-0.1254596312794917</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.07805788488228592</v>
+      </c>
+      <c r="H24">
+        <v>-0.09974085021439316</v>
+      </c>
+      <c r="I24">
+        <v>-0.01530541106599552</v>
+      </c>
+      <c r="J24">
+        <v>0.1189385426704878</v>
+      </c>
+      <c r="K24">
+        <v>-0.07401367039655958</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>0.07571732359821078</v>
+        <v>-0.08949760371198098</v>
       </c>
       <c r="C25">
-        <v>-0.02057066553192994</v>
+        <v>0.04203049678585614</v>
       </c>
       <c r="D25">
-        <v>0.027180247588731</v>
+        <v>0.01994634024347942</v>
       </c>
       <c r="E25">
-        <v>0.02424963069734019</v>
+        <v>0.05619089066410765</v>
       </c>
       <c r="F25">
-        <v>-0.02251877106168977</v>
+        <v>0.002222467623802507</v>
       </c>
       <c r="G25">
-        <v>-0.1158978686652386</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.08825844011011424</v>
+      </c>
+      <c r="H25">
+        <v>-0.08617413826199027</v>
+      </c>
+      <c r="I25">
+        <v>0.01199002454466108</v>
+      </c>
+      <c r="J25">
+        <v>0.07960420704673493</v>
+      </c>
+      <c r="K25">
+        <v>-0.04232023483763348</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>0.05040802097244253</v>
+        <v>-0.0410435393349298</v>
       </c>
       <c r="C26">
-        <v>-0.02713455726513854</v>
+        <v>-0.006579735611834607</v>
       </c>
       <c r="D26">
-        <v>0.03738213860417712</v>
+        <v>-0.02138426698310295</v>
       </c>
       <c r="E26">
-        <v>0.007036042044752247</v>
+        <v>-0.01726301822085313</v>
       </c>
       <c r="F26">
-        <v>0.009119803462825574</v>
+        <v>0.006228111390665198</v>
       </c>
       <c r="G26">
-        <v>-0.06042976135285816</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.03911292437449489</v>
+      </c>
+      <c r="H26">
+        <v>-0.02978661886904507</v>
+      </c>
+      <c r="I26">
+        <v>0.0429929925752946</v>
+      </c>
+      <c r="J26">
+        <v>-0.05004832769593215</v>
+      </c>
+      <c r="K26">
+        <v>-0.03499475130730224</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1321,217 +1645,337 @@
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>0.0610538116149765</v>
+        <v>-0.09682214801398492</v>
       </c>
       <c r="C28">
-        <v>0.3014061776634073</v>
+        <v>-0.3185390535284019</v>
       </c>
       <c r="D28">
-        <v>0.04038875905495164</v>
+        <v>0.01641562873351033</v>
       </c>
       <c r="E28">
-        <v>-0.02007377675729437</v>
+        <v>0.02270100400842014</v>
       </c>
       <c r="F28">
-        <v>-0.0528107406792951</v>
+        <v>-0.004510233774504632</v>
       </c>
       <c r="G28">
-        <v>0.02428841496747295</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.02544785880619066</v>
+      </c>
+      <c r="H28">
+        <v>-0.02047606480509362</v>
+      </c>
+      <c r="I28">
+        <v>-0.02585993137694336</v>
+      </c>
+      <c r="J28">
+        <v>0.004585224913536294</v>
+      </c>
+      <c r="K28">
+        <v>0.005439334658844682</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>0.05839584236204229</v>
+        <v>-0.03850898831118878</v>
       </c>
       <c r="C29">
-        <v>-0.003789407538918082</v>
+        <v>0.008977803317560772</v>
       </c>
       <c r="D29">
-        <v>0.03476647503847491</v>
+        <v>-0.0002488656299759651</v>
       </c>
       <c r="E29">
-        <v>0.04005527027803554</v>
+        <v>0.02330638188490575</v>
       </c>
       <c r="F29">
-        <v>0.02726818502828317</v>
+        <v>-0.01788608450989551</v>
       </c>
       <c r="G29">
-        <v>-0.04329843363726833</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.08067522370639234</v>
+      </c>
+      <c r="H29">
+        <v>-0.04101596202782593</v>
+      </c>
+      <c r="I29">
+        <v>0.05331866521562278</v>
+      </c>
+      <c r="J29">
+        <v>-0.05743256040948949</v>
+      </c>
+      <c r="K29">
+        <v>-0.06078837429194434</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>0.1129764835259522</v>
+        <v>-0.1087903856225516</v>
       </c>
       <c r="C30">
-        <v>0.0229740794650363</v>
+        <v>0.07387045794414902</v>
       </c>
       <c r="D30">
-        <v>0.08038370670139161</v>
+        <v>0.04558881925929483</v>
       </c>
       <c r="E30">
-        <v>0.217099259816978</v>
+        <v>0.00566749950370222</v>
       </c>
       <c r="F30">
-        <v>-0.08437334141340308</v>
+        <v>0.01470807779045593</v>
       </c>
       <c r="G30">
-        <v>-0.1422556106445289</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.1865648357785666</v>
+      </c>
+      <c r="H30">
+        <v>-0.1421150024295767</v>
+      </c>
+      <c r="I30">
+        <v>-0.2554383047377713</v>
+      </c>
+      <c r="J30">
+        <v>0.04162718083366219</v>
+      </c>
+      <c r="K30">
+        <v>0.07552915266162377</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>0.05799611816839153</v>
+        <v>-0.03804759807035959</v>
       </c>
       <c r="C31">
-        <v>-0.01582703608102503</v>
+        <v>0.02605564453663266</v>
       </c>
       <c r="D31">
-        <v>-0.009278141443177089</v>
+        <v>0.00016433721562305</v>
       </c>
       <c r="E31">
-        <v>0.001763689997697103</v>
+        <v>-0.004653162886277412</v>
       </c>
       <c r="F31">
-        <v>0.03629297680456284</v>
+        <v>2.310483729366675e-05</v>
       </c>
       <c r="G31">
-        <v>-0.01044755008291534</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.0113479181293123</v>
+      </c>
+      <c r="H31">
+        <v>-0.01955832310169776</v>
+      </c>
+      <c r="I31">
+        <v>0.05190864008434542</v>
+      </c>
+      <c r="J31">
+        <v>-0.01680649415614507</v>
+      </c>
+      <c r="K31">
+        <v>-0.06554363924831605</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>0.03969031739943148</v>
+        <v>-0.05563224607056029</v>
       </c>
       <c r="C32">
-        <v>0.02213711781644309</v>
+        <v>0.004485790314126563</v>
       </c>
       <c r="D32">
-        <v>0.008596206903380905</v>
+        <v>-0.01626567467851052</v>
       </c>
       <c r="E32">
-        <v>0.07991811257873714</v>
+        <v>0.01969153415898264</v>
       </c>
       <c r="F32">
-        <v>0.1341270962598481</v>
+        <v>0.05468716407915757</v>
       </c>
       <c r="G32">
-        <v>-0.06308154084949523</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.02628655069159847</v>
+      </c>
+      <c r="H32">
+        <v>-0.03600428720436856</v>
+      </c>
+      <c r="I32">
+        <v>-0.002810018499953655</v>
+      </c>
+      <c r="J32">
+        <v>0.001895004014864439</v>
+      </c>
+      <c r="K32">
+        <v>-0.006626421600299409</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>0.1114843409796307</v>
+        <v>-0.1032950846915741</v>
       </c>
       <c r="C33">
-        <v>-0.01348691316324881</v>
+        <v>0.0521810613263033</v>
       </c>
       <c r="D33">
-        <v>-0.01002884011818191</v>
+        <v>0.06866349298986869</v>
       </c>
       <c r="E33">
-        <v>0.01197050756085723</v>
+        <v>0.02757255107542601</v>
       </c>
       <c r="F33">
-        <v>0.02467263988270506</v>
+        <v>0.004402512841455292</v>
       </c>
       <c r="G33">
-        <v>-0.07283641091096678</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.03127141797226966</v>
+      </c>
+      <c r="H33">
+        <v>-0.04947705028544014</v>
+      </c>
+      <c r="I33">
+        <v>0.01885106188018483</v>
+      </c>
+      <c r="J33">
+        <v>0.01829520410714717</v>
+      </c>
+      <c r="K33">
+        <v>-0.02702393959016331</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>0.06764718960579232</v>
+        <v>-0.07365755137551538</v>
       </c>
       <c r="C34">
-        <v>-0.04363328718508252</v>
+        <v>0.05219638034851402</v>
       </c>
       <c r="D34">
-        <v>0.01106204717224409</v>
+        <v>0.01539899262707851</v>
       </c>
       <c r="E34">
-        <v>0.005882613245952227</v>
+        <v>0.02885567162693183</v>
       </c>
       <c r="F34">
-        <v>0.0163345190471407</v>
+        <v>0.004909185382263291</v>
       </c>
       <c r="G34">
-        <v>-0.1002055380007659</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.08200503086885766</v>
+      </c>
+      <c r="H34">
+        <v>-0.09466370764752652</v>
+      </c>
+      <c r="I34">
+        <v>0.01205721735197654</v>
+      </c>
+      <c r="J34">
+        <v>0.08243995625699423</v>
+      </c>
+      <c r="K34">
+        <v>-0.04476026025857532</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>0.04279314098275566</v>
+        <v>-0.01958645995269749</v>
       </c>
       <c r="C35">
-        <v>-0.0102043390455812</v>
+        <v>0.01236337025627422</v>
       </c>
       <c r="D35">
-        <v>-0.0103486531523426</v>
+        <v>0.004414169797671072</v>
       </c>
       <c r="E35">
-        <v>0.009568340613235653</v>
+        <v>0.007159303479662798</v>
       </c>
       <c r="F35">
-        <v>-0.04805117157332078</v>
+        <v>-0.003289448250937712</v>
       </c>
       <c r="G35">
-        <v>-0.03957262190842924</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>-0.05247926648354578</v>
+      </c>
+      <c r="H35">
+        <v>-0.0233944617099094</v>
+      </c>
+      <c r="I35">
+        <v>0.03144780983172186</v>
+      </c>
+      <c r="J35">
+        <v>-0.02708916966795476</v>
+      </c>
+      <c r="K35">
+        <v>0.01446756039771122</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>0.03862262436494273</v>
+        <v>-0.03105179876933528</v>
       </c>
       <c r="C36">
-        <v>-0.001458812803093124</v>
+        <v>0.007238570593962549</v>
       </c>
       <c r="D36">
-        <v>0.0233130684915159</v>
+        <v>0.003074402132048648</v>
       </c>
       <c r="E36">
-        <v>0.03392326280796561</v>
+        <v>-0.009804630434803376</v>
       </c>
       <c r="F36">
-        <v>-0.001838927670414109</v>
+        <v>0.002609481353060569</v>
       </c>
       <c r="G36">
-        <v>-0.05238293816269615</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.0456696512391053</v>
+      </c>
+      <c r="H36">
+        <v>-0.04801269671227618</v>
+      </c>
+      <c r="I36">
+        <v>0.03026743019759168</v>
+      </c>
+      <c r="J36">
+        <v>-0.02434959753106786</v>
+      </c>
+      <c r="K36">
+        <v>-0.02581067862283117</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,102 +1995,162 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>0.05579060688438413</v>
+        <v>-0.02157318823378098</v>
       </c>
       <c r="C38">
-        <v>-0.01573142063397712</v>
+        <v>0.01639295290601337</v>
       </c>
       <c r="D38">
-        <v>0.005587222083872371</v>
+        <v>0.01117642410220742</v>
       </c>
       <c r="E38">
-        <v>0.003443698164458357</v>
+        <v>-0.01264387822079909</v>
       </c>
       <c r="F38">
-        <v>0.01040135027626163</v>
+        <v>-0.01988663121080463</v>
       </c>
       <c r="G38">
-        <v>-0.06186489182235641</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.01635695843470163</v>
+      </c>
+      <c r="H38">
+        <v>0.04193932006479125</v>
+      </c>
+      <c r="I38">
+        <v>-0.00926438135787854</v>
+      </c>
+      <c r="J38">
+        <v>-0.03059866024794491</v>
+      </c>
+      <c r="K38">
+        <v>-0.05510276056040393</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>0.1082191342663612</v>
+        <v>-0.1232470516614987</v>
       </c>
       <c r="C39">
-        <v>-0.03918284750008424</v>
+        <v>0.08671817509908594</v>
       </c>
       <c r="D39">
-        <v>0.0149028183050188</v>
+        <v>0.04751060157411615</v>
       </c>
       <c r="E39">
-        <v>0.0693834637144565</v>
+        <v>0.102754132986239</v>
       </c>
       <c r="F39">
-        <v>-0.00292662034890314</v>
+        <v>0.03254576764100692</v>
       </c>
       <c r="G39">
-        <v>-0.1509952923167152</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.124689946154329</v>
+      </c>
+      <c r="H39">
+        <v>-0.08027222897302143</v>
+      </c>
+      <c r="I39">
+        <v>-0.004235597864437964</v>
+      </c>
+      <c r="J39">
+        <v>0.1557386936702856</v>
+      </c>
+      <c r="K39">
+        <v>0.02945025689587241</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>0.04999343389699869</v>
+        <v>-0.02015190185395498</v>
       </c>
       <c r="C40">
-        <v>-0.02407864341877473</v>
+        <v>0.0307914682436771</v>
       </c>
       <c r="D40">
-        <v>-0.01089902052128481</v>
+        <v>-0.00434764301712293</v>
       </c>
       <c r="E40">
-        <v>0.1052201394073602</v>
+        <v>-0.05859876632371892</v>
       </c>
       <c r="F40">
-        <v>-0.05709804987297567</v>
+        <v>-0.03446664129901066</v>
       </c>
       <c r="G40">
-        <v>-0.2376635314758649</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.06215401733782284</v>
+      </c>
+      <c r="H40">
+        <v>-0.102839522125991</v>
+      </c>
+      <c r="I40">
+        <v>-0.05473769082064748</v>
+      </c>
+      <c r="J40">
+        <v>-0.05773707067208081</v>
+      </c>
+      <c r="K40">
+        <v>-0.02080610444038761</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>0.04737141033363108</v>
+        <v>-0.03018805106713523</v>
       </c>
       <c r="C41">
-        <v>-0.02955512355170261</v>
+        <v>0.01168417837191103</v>
       </c>
       <c r="D41">
-        <v>0.006115891747980305</v>
+        <v>-0.01069260655589937</v>
       </c>
       <c r="E41">
-        <v>-0.01773271165338358</v>
+        <v>0.01297064227763539</v>
       </c>
       <c r="F41">
-        <v>0.01887982520035801</v>
+        <v>-0.005887932396480801</v>
       </c>
       <c r="G41">
-        <v>-0.06378450573928313</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.007332180550254732</v>
+      </c>
+      <c r="H41">
+        <v>-0.0151533700625767</v>
+      </c>
+      <c r="I41">
+        <v>0.02181766732806794</v>
+      </c>
+      <c r="J41">
+        <v>-0.0245637016328681</v>
+      </c>
+      <c r="K41">
+        <v>-0.05305068993320663</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1666,56 +2170,92 @@
       <c r="G42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>0.07334772150338756</v>
+        <v>-0.04715518713347292</v>
       </c>
       <c r="C43">
-        <v>-0.02885930353727263</v>
+        <v>0.01493114566307436</v>
       </c>
       <c r="D43">
-        <v>0.02207348264075206</v>
+        <v>0.01308961763233077</v>
       </c>
       <c r="E43">
-        <v>0.01860052167668366</v>
+        <v>-0.001314055338406198</v>
       </c>
       <c r="F43">
-        <v>0.02265582068295487</v>
+        <v>-0.01068850033678485</v>
       </c>
       <c r="G43">
-        <v>-0.006935922154427113</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.02581084257273512</v>
+      </c>
+      <c r="H43">
+        <v>-0.0006797305725325211</v>
+      </c>
+      <c r="I43">
+        <v>0.02857078860970825</v>
+      </c>
+      <c r="J43">
+        <v>-0.01697462407091009</v>
+      </c>
+      <c r="K43">
+        <v>-0.06804908543292977</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>0.07479420423587071</v>
+        <v>-0.1173904786611386</v>
       </c>
       <c r="C44">
-        <v>-0.01600531382267492</v>
+        <v>0.09904833761979533</v>
       </c>
       <c r="D44">
-        <v>0.1028894358880662</v>
+        <v>0.04219091790180369</v>
       </c>
       <c r="E44">
-        <v>0.04365033324229903</v>
+        <v>-0.03350985815612795</v>
       </c>
       <c r="F44">
-        <v>0.03758302566464176</v>
+        <v>-0.1161294679489673</v>
       </c>
       <c r="G44">
-        <v>-0.1005605038577944</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.2186389517955538</v>
+      </c>
+      <c r="H44">
+        <v>-0.1409686238743064</v>
+      </c>
+      <c r="I44">
+        <v>-0.1308240286650009</v>
+      </c>
+      <c r="J44">
+        <v>-0.01448594309977581</v>
+      </c>
+      <c r="K44">
+        <v>0.01751035937443468</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,263 +2275,407 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>0.0495576460687361</v>
+        <v>-0.02690100848381121</v>
       </c>
       <c r="C46">
-        <v>-0.03841750615203787</v>
+        <v>0.005899294529395125</v>
       </c>
       <c r="D46">
-        <v>0.03501800132957418</v>
+        <v>0.009817675715472943</v>
       </c>
       <c r="E46">
-        <v>0.04409253397133067</v>
+        <v>-0.02125080650572392</v>
       </c>
       <c r="F46">
-        <v>0.01780500656386131</v>
+        <v>-0.03891263084723219</v>
       </c>
       <c r="G46">
-        <v>-0.02724195797052626</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.046601129994045</v>
+      </c>
+      <c r="H46">
+        <v>-0.0262506446698712</v>
+      </c>
+      <c r="I46">
+        <v>0.04754205951034401</v>
+      </c>
+      <c r="J46">
+        <v>-0.04867146814777017</v>
+      </c>
+      <c r="K46">
+        <v>-0.03662894871645814</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>0.0491293294604032</v>
+        <v>-0.04131019439557463</v>
       </c>
       <c r="C47">
-        <v>0.0001583726243098893</v>
+        <v>0.007860385744422403</v>
       </c>
       <c r="D47">
-        <v>0.006279722464413286</v>
+        <v>-0.0005938995615104298</v>
       </c>
       <c r="E47">
-        <v>0.06204801514246376</v>
+        <v>-0.01368305415493821</v>
       </c>
       <c r="F47">
-        <v>0.007550981622756111</v>
+        <v>-0.003251471522134324</v>
       </c>
       <c r="G47">
-        <v>0.007159767634696309</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.04024113390858047</v>
+      </c>
+      <c r="H47">
+        <v>-0.02366207499995138</v>
+      </c>
+      <c r="I47">
+        <v>0.03501245743671168</v>
+      </c>
+      <c r="J47">
+        <v>-0.06099864163594849</v>
+      </c>
+      <c r="K47">
+        <v>-0.0378022931990052</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>0.0443732072302481</v>
+        <v>-0.03809785046498239</v>
       </c>
       <c r="C48">
-        <v>0.0008165691985439764</v>
+        <v>-0.000310631305066433</v>
       </c>
       <c r="D48">
-        <v>-0.005088374844397129</v>
+        <v>0.007731144354142281</v>
       </c>
       <c r="E48">
-        <v>0.03873237610491921</v>
+        <v>-0.001622582146579025</v>
       </c>
       <c r="F48">
-        <v>0.001995934988459946</v>
+        <v>0.001985904860898306</v>
       </c>
       <c r="G48">
-        <v>-0.04239446401225092</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.04853470461887931</v>
+      </c>
+      <c r="H48">
+        <v>-0.03800217829591274</v>
+      </c>
+      <c r="I48">
+        <v>0.03964829192853104</v>
+      </c>
+      <c r="J48">
+        <v>-0.03967218207815035</v>
+      </c>
+      <c r="K48">
+        <v>0.02113868557988281</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>0.237623268153984</v>
+        <v>-0.2316496595443565</v>
       </c>
       <c r="C49">
-        <v>-0.07476503149539858</v>
+        <v>0.03807271401669869</v>
       </c>
       <c r="D49">
-        <v>0.01475918615804407</v>
+        <v>-0.05601844531645524</v>
       </c>
       <c r="E49">
-        <v>-0.09117507708715542</v>
+        <v>0.04487220233556611</v>
       </c>
       <c r="F49">
-        <v>-0.1067478558426703</v>
+        <v>-0.03165842979299682</v>
       </c>
       <c r="G49">
-        <v>0.1162125775301597</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>0.2087596826209791</v>
+      </c>
+      <c r="H49">
+        <v>0.1496123979867731</v>
+      </c>
+      <c r="I49">
+        <v>-0.2177230305715133</v>
+      </c>
+      <c r="J49">
+        <v>0.2180472121229842</v>
+      </c>
+      <c r="K49">
+        <v>-0.08031232587372286</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>0.05405733913704652</v>
+        <v>-0.04297492107203459</v>
       </c>
       <c r="C50">
-        <v>-0.01357649452145666</v>
+        <v>0.01995402995631494</v>
       </c>
       <c r="D50">
-        <v>0.00150999965547801</v>
+        <v>-0.008056712675698031</v>
       </c>
       <c r="E50">
-        <v>0.01661597129109544</v>
+        <v>-0.002291526126431807</v>
       </c>
       <c r="F50">
-        <v>0.04826282895747167</v>
+        <v>0.0005731640960644742</v>
       </c>
       <c r="G50">
-        <v>-0.004889269490546249</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.03775478760670874</v>
+      </c>
+      <c r="H50">
+        <v>-0.03065665880212098</v>
+      </c>
+      <c r="I50">
+        <v>0.02533828948190713</v>
+      </c>
+      <c r="J50">
+        <v>-0.01705765952097206</v>
+      </c>
+      <c r="K50">
+        <v>-0.04920558218191437</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>0.03904058666281546</v>
+        <v>-0.01957114862817509</v>
       </c>
       <c r="C51">
-        <v>-0.008980715695784368</v>
+        <v>-0.004744922404331615</v>
       </c>
       <c r="D51">
-        <v>0.0128925461832833</v>
+        <v>0.01369813914078592</v>
       </c>
       <c r="E51">
-        <v>-0.01212425931178863</v>
+        <v>0.003228263581491145</v>
       </c>
       <c r="F51">
-        <v>0.01628912910378912</v>
+        <v>-0.01918599550502241</v>
       </c>
       <c r="G51">
-        <v>0.008700387077666707</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.02920168101748007</v>
+      </c>
+      <c r="H51">
+        <v>0.004809669128431818</v>
+      </c>
+      <c r="I51">
+        <v>-0.01641013866844281</v>
+      </c>
+      <c r="J51">
+        <v>0.01956142945535818</v>
+      </c>
+      <c r="K51">
+        <v>-0.02351219499458432</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>-0.07688600356720959</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>0.04407808895906676</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>-0.0002237937169719217</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>0.02097231544803968</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>0.007947102438866554</v>
       </c>
       <c r="G52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+        <v>-0.06577773471880914</v>
+      </c>
+      <c r="H52">
+        <v>0.04600903653122467</v>
+      </c>
+      <c r="I52">
+        <v>0.1219944287138688</v>
+      </c>
+      <c r="J52">
+        <v>0.01818270213545443</v>
+      </c>
+      <c r="K52">
+        <v>0.06778626517432672</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>0.1627842369348263</v>
+        <v>-0.1640138958130533</v>
       </c>
       <c r="C53">
-        <v>0.004580930363546281</v>
+        <v>0.02868765953019218</v>
       </c>
       <c r="D53">
-        <v>0.01258030303023459</v>
+        <v>0.008118697083779235</v>
       </c>
       <c r="E53">
-        <v>-0.07769044434820109</v>
+        <v>0.01491732555738573</v>
       </c>
       <c r="F53">
-        <v>0.2367656109045974</v>
+        <v>-0.02161723691878847</v>
       </c>
       <c r="G53">
-        <v>0.03108493598469638</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.01505893087011323</v>
+      </c>
+      <c r="H53">
+        <v>0.1201977687015797</v>
+      </c>
+      <c r="I53">
+        <v>0.2170083207086634</v>
+      </c>
+      <c r="J53">
+        <v>-0.01431908611714027</v>
+      </c>
+      <c r="K53">
+        <v>-0.07525276189821634</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>0.05388267411447212</v>
+        <v>-0.05145850182251312</v>
       </c>
       <c r="C54">
-        <v>-0.008426871136026717</v>
+        <v>0.01979248273967143</v>
       </c>
       <c r="D54">
-        <v>0.02389419089921028</v>
+        <v>-0.00533771502914609</v>
       </c>
       <c r="E54">
-        <v>0.03888574899593936</v>
+        <v>-0.02211881140145606</v>
       </c>
       <c r="F54">
-        <v>0.01394149064045005</v>
+        <v>-0.01578608282325177</v>
       </c>
       <c r="G54">
-        <v>-0.06768034634845493</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.05648152900128064</v>
+      </c>
+      <c r="H54">
+        <v>-0.1166881802577212</v>
+      </c>
+      <c r="I54">
+        <v>0.07003539140579038</v>
+      </c>
+      <c r="J54">
+        <v>-0.1296653147589474</v>
+      </c>
+      <c r="K54">
+        <v>-0.01572058267541953</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>0.0963927191160116</v>
+        <v>-0.08792710549225108</v>
       </c>
       <c r="C55">
-        <v>-0.01003441954532443</v>
+        <v>0.02468447622404493</v>
       </c>
       <c r="D55">
-        <v>0.02358830141044055</v>
+        <v>0.05106834949851621</v>
       </c>
       <c r="E55">
-        <v>-0.02014727827848361</v>
+        <v>0.03296348825575287</v>
       </c>
       <c r="F55">
-        <v>0.1779508857111126</v>
+        <v>-0.009590910653932682</v>
       </c>
       <c r="G55">
-        <v>-0.01582817583195035</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.01566515977378528</v>
+      </c>
+      <c r="H55">
+        <v>0.02741860808791298</v>
+      </c>
+      <c r="I55">
+        <v>0.1530645189738899</v>
+      </c>
+      <c r="J55">
+        <v>-0.01924576533759137</v>
+      </c>
+      <c r="K55">
+        <v>-0.05241613696909511</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>0.164393085323352</v>
+        <v>-0.160939226696907</v>
       </c>
       <c r="C56">
-        <v>0.004910798903952203</v>
+        <v>0.04086684054718733</v>
       </c>
       <c r="D56">
-        <v>0.0008065348796496396</v>
+        <v>0.01771511163772039</v>
       </c>
       <c r="E56">
-        <v>-0.07652785975137054</v>
+        <v>0.03717497457560862</v>
       </c>
       <c r="F56">
-        <v>0.2418097799214949</v>
+        <v>-0.02265710803728345</v>
       </c>
       <c r="G56">
-        <v>0.02702328786462872</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.04406863919777446</v>
+      </c>
+      <c r="H56">
+        <v>0.08153600635170404</v>
+      </c>
+      <c r="I56">
+        <v>0.1765507317209749</v>
+      </c>
+      <c r="J56">
+        <v>0.009340542294653212</v>
+      </c>
+      <c r="K56">
+        <v>-0.1163626196712809</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2011,1022 +2695,1562 @@
       <c r="G57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>0.01857838198715968</v>
+        <v>-0.03874693191523089</v>
       </c>
       <c r="C58">
-        <v>-0.07652860718046031</v>
+        <v>0.02122933480741484</v>
       </c>
       <c r="D58">
-        <v>-0.006290885120120784</v>
+        <v>0.008392017482944041</v>
       </c>
       <c r="E58">
-        <v>0.2571242787062656</v>
+        <v>-0.07708165281915384</v>
       </c>
       <c r="F58">
-        <v>-0.3372655270908715</v>
+        <v>-0.02954405465079311</v>
       </c>
       <c r="G58">
-        <v>-0.05443102939931943</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.1065962145676701</v>
+      </c>
+      <c r="H58">
+        <v>0.005177226904257841</v>
+      </c>
+      <c r="I58">
+        <v>-0.01045145128305661</v>
+      </c>
+      <c r="J58">
+        <v>-0.1201146792846606</v>
+      </c>
+      <c r="K58">
+        <v>0.1593032269677939</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>0.1490485402469668</v>
+        <v>-0.1730198175958815</v>
       </c>
       <c r="C59">
-        <v>0.3869928770581213</v>
+        <v>-0.295155669731912</v>
       </c>
       <c r="D59">
-        <v>0.0632939275780933</v>
+        <v>0.0360669656746241</v>
       </c>
       <c r="E59">
-        <v>-0.0668740751719616</v>
+        <v>0.06553135961662176</v>
       </c>
       <c r="F59">
-        <v>0.01061145577299244</v>
+        <v>-0.01500691246385731</v>
       </c>
       <c r="G59">
-        <v>-0.04419496248392284</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.01758291530231441</v>
+      </c>
+      <c r="H59">
+        <v>-0.04822414671978166</v>
+      </c>
+      <c r="I59">
+        <v>0.03142275654672281</v>
+      </c>
+      <c r="J59">
+        <v>0.07154163670409257</v>
+      </c>
+      <c r="K59">
+        <v>-0.009321636169007188</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>0.2732466744558977</v>
+        <v>-0.2770912875990311</v>
       </c>
       <c r="C60">
-        <v>-0.06078165336502894</v>
+        <v>0.1379569720357248</v>
       </c>
       <c r="D60">
-        <v>0.04922263311916021</v>
+        <v>-0.04750806943633805</v>
       </c>
       <c r="E60">
-        <v>-0.06741359970197951</v>
+        <v>0.09368839437748619</v>
       </c>
       <c r="F60">
-        <v>-0.06212271269124241</v>
+        <v>-0.08885416363847086</v>
       </c>
       <c r="G60">
-        <v>0.1716410538710857</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.04673786893680937</v>
+      </c>
+      <c r="H60">
+        <v>0.206019305953676</v>
+      </c>
+      <c r="I60">
+        <v>-0.2773802673786432</v>
+      </c>
+      <c r="J60">
+        <v>0.07376777153567363</v>
+      </c>
+      <c r="K60">
+        <v>0.07083159832005724</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>0.0959865996226623</v>
+        <v>-0.1127478377048397</v>
       </c>
       <c r="C61">
-        <v>-0.01882301607766126</v>
+        <v>0.05528853639390042</v>
       </c>
       <c r="D61">
-        <v>-0.0001360433780235464</v>
+        <v>0.03177299363778158</v>
       </c>
       <c r="E61">
-        <v>0.01964782906498077</v>
+        <v>0.07239093992312262</v>
       </c>
       <c r="F61">
-        <v>0.01725743449144393</v>
+        <v>0.000607378412539704</v>
       </c>
       <c r="G61">
-        <v>-0.07006152044156561</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.1102236715966011</v>
+      </c>
+      <c r="H61">
+        <v>-0.09691711082014554</v>
+      </c>
+      <c r="I61">
+        <v>0.04422701685121468</v>
+      </c>
+      <c r="J61">
+        <v>0.1091369226674657</v>
+      </c>
+      <c r="K61">
+        <v>-0.008816252174611527</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>0.1475514692896455</v>
+        <v>-0.1553238635831264</v>
       </c>
       <c r="C62">
-        <v>-0.01487734193910402</v>
+        <v>0.03837318652182343</v>
       </c>
       <c r="D62">
-        <v>-0.02672800816189084</v>
+        <v>0.02609227170480929</v>
       </c>
       <c r="E62">
-        <v>-0.1330530269348377</v>
+        <v>0.03711091030105999</v>
       </c>
       <c r="F62">
-        <v>0.1950441917303338</v>
+        <v>-0.00695690325399344</v>
       </c>
       <c r="G62">
-        <v>-0.003856969273024498</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>-0.02908651634828438</v>
+      </c>
+      <c r="H62">
+        <v>0.1008801575521799</v>
+      </c>
+      <c r="I62">
+        <v>0.1705295270306754</v>
+      </c>
+      <c r="J62">
+        <v>-0.03830012689522495</v>
+      </c>
+      <c r="K62">
+        <v>-0.05547147284074496</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>0.04318634554756248</v>
+        <v>-0.03892096924564198</v>
       </c>
       <c r="C63">
-        <v>-0.0182251413242275</v>
+        <v>0.0003950931507123143</v>
       </c>
       <c r="D63">
-        <v>-0.0104562525063388</v>
+        <v>0.009528993315759569</v>
       </c>
       <c r="E63">
-        <v>0.01201911019504335</v>
+        <v>-0.01201191261302347</v>
       </c>
       <c r="F63">
-        <v>0.01178938414453317</v>
+        <v>0.02859639478962446</v>
       </c>
       <c r="G63">
-        <v>-0.04257769113008294</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.0291228068274491</v>
+      </c>
+      <c r="H63">
+        <v>-0.05329511207975422</v>
+      </c>
+      <c r="I63">
+        <v>0.0288906844795416</v>
+      </c>
+      <c r="J63">
+        <v>-0.01307620656430349</v>
+      </c>
+      <c r="K63">
+        <v>-0.05169107568061575</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>0.1093084417324416</v>
+        <v>-0.1001809268146574</v>
       </c>
       <c r="C64">
-        <v>-0.01175460993428758</v>
+        <v>0.02414980217152293</v>
       </c>
       <c r="D64">
-        <v>0.03690166045296431</v>
+        <v>-0.006221127120034037</v>
       </c>
       <c r="E64">
-        <v>0.04191648134681021</v>
+        <v>0.015467755656334</v>
       </c>
       <c r="F64">
-        <v>-0.02467033479465872</v>
+        <v>-0.04714847033385414</v>
       </c>
       <c r="G64">
-        <v>-0.05231462574666742</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.0546099439009906</v>
+      </c>
+      <c r="H64">
+        <v>-0.04803997871887969</v>
+      </c>
+      <c r="I64">
+        <v>-0.05912459335084797</v>
+      </c>
+      <c r="J64">
+        <v>0.0105885943886373</v>
+      </c>
+      <c r="K64">
+        <v>-0.01205011919987258</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>0.1148897349993619</v>
+        <v>-0.1159911859987409</v>
       </c>
       <c r="C65">
-        <v>-0.03236979392745763</v>
+        <v>0.003134007517613595</v>
       </c>
       <c r="D65">
-        <v>0.0219509566810108</v>
+        <v>-0.006281479316889508</v>
       </c>
       <c r="E65">
-        <v>0.07618749712580136</v>
+        <v>-0.01986535715905252</v>
       </c>
       <c r="F65">
-        <v>-0.2608401437335388</v>
+        <v>0.03119452811885745</v>
       </c>
       <c r="G65">
-        <v>0.2166328861157886</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.03324758719163869</v>
+      </c>
+      <c r="H65">
+        <v>-0.01614920322599354</v>
+      </c>
+      <c r="I65">
+        <v>-0.2467868309938774</v>
+      </c>
+      <c r="J65">
+        <v>-0.4387019748971244</v>
+      </c>
+      <c r="K65">
+        <v>-0.17894067513891</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>0.1594010640992107</v>
+        <v>-0.1521749378994986</v>
       </c>
       <c r="C66">
-        <v>-0.04553392765245068</v>
+        <v>0.1119017264714398</v>
       </c>
       <c r="D66">
-        <v>-0.009937310998246145</v>
+        <v>0.04018818819291391</v>
       </c>
       <c r="E66">
-        <v>0.02016511675921218</v>
+        <v>0.1084877010964373</v>
       </c>
       <c r="F66">
-        <v>-0.009182319898416592</v>
+        <v>0.04099698704357347</v>
       </c>
       <c r="G66">
-        <v>-0.2998158724242815</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.1226415570741194</v>
+      </c>
+      <c r="H66">
+        <v>-0.07016507939637608</v>
+      </c>
+      <c r="I66">
+        <v>-0.008425914765709749</v>
+      </c>
+      <c r="J66">
+        <v>0.2473219997511354</v>
+      </c>
+      <c r="K66">
+        <v>-0.03347104119285293</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>0.1091673934794789</v>
+        <v>-0.07935996556323356</v>
       </c>
       <c r="C67">
-        <v>-0.03567761628719796</v>
+        <v>0.04383014351118905</v>
       </c>
       <c r="D67">
-        <v>0.02024101066804706</v>
+        <v>0.07586100920644107</v>
       </c>
       <c r="E67">
-        <v>-0.02239464121798818</v>
+        <v>0.007436721759260077</v>
       </c>
       <c r="F67">
-        <v>0.02617668256493049</v>
+        <v>-0.02918184642728024</v>
       </c>
       <c r="G67">
-        <v>-0.05662959770086826</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.06511407764453693</v>
+      </c>
+      <c r="H67">
+        <v>0.01645421334426806</v>
+      </c>
+      <c r="I67">
+        <v>-0.01087138229566912</v>
+      </c>
+      <c r="J67">
+        <v>0.02305543926782063</v>
+      </c>
+      <c r="K67">
+        <v>-0.0228586378443729</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>0.0379273261409593</v>
+        <v>-0.08164684375234811</v>
       </c>
       <c r="C68">
-        <v>0.2940462980902532</v>
+        <v>-0.2870634212988873</v>
       </c>
       <c r="D68">
-        <v>0.01464493644013761</v>
+        <v>0.009970834058270352</v>
       </c>
       <c r="E68">
-        <v>-0.005692776526417778</v>
+        <v>0.02046928962699167</v>
       </c>
       <c r="F68">
-        <v>-0.004579142356752493</v>
+        <v>0.01936367293312461</v>
       </c>
       <c r="G68">
-        <v>0.01992080721272195</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.03883200041956449</v>
+      </c>
+      <c r="H68">
+        <v>-0.03468549683863052</v>
+      </c>
+      <c r="I68">
+        <v>-0.009366048298095087</v>
+      </c>
+      <c r="J68">
+        <v>-0.007540413641018986</v>
+      </c>
+      <c r="K68">
+        <v>-0.00538326247884759</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>0.04860924802457783</v>
+        <v>-0.03793945055113884</v>
       </c>
       <c r="C69">
-        <v>-0.01235364201964931</v>
+        <v>0.003826990225752658</v>
       </c>
       <c r="D69">
-        <v>-0.002460200330174113</v>
+        <v>0.02595788746426867</v>
       </c>
       <c r="E69">
-        <v>-0.002051304022369513</v>
+        <v>0.004928805081042881</v>
       </c>
       <c r="F69">
-        <v>6.795724136455034e-05</v>
+        <v>-0.009828358563614456</v>
       </c>
       <c r="G69">
-        <v>-0.01117631646627488</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.01802633375307559</v>
+      </c>
+      <c r="H69">
+        <v>0.003318170277311019</v>
+      </c>
+      <c r="I69">
+        <v>0.01769604838549288</v>
+      </c>
+      <c r="J69">
+        <v>-0.02152004343967078</v>
+      </c>
+      <c r="K69">
+        <v>-0.03667856018340437</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B70">
-        <v>0.07786377383801335</v>
+        <v>-0.04552585009779753</v>
       </c>
       <c r="C70">
-        <v>-0.005716585570420788</v>
+        <v>-0.00106762645443832</v>
       </c>
       <c r="D70">
-        <v>0.02558955188289559</v>
+        <v>0.03190507542812068</v>
       </c>
       <c r="E70">
-        <v>-0.02477174671267739</v>
+        <v>0.0384793764720073</v>
       </c>
       <c r="F70">
-        <v>-0.03556592116864059</v>
+        <v>-0.02604284736630348</v>
       </c>
       <c r="G70">
-        <v>0.02198098557162782</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
+        <v>-0.007981745146833162</v>
+      </c>
+      <c r="H70">
+        <v>-0.01656147886821479</v>
+      </c>
+      <c r="I70">
+        <v>-0.01175027758025429</v>
+      </c>
+      <c r="J70">
+        <v>-0.1681215870957709</v>
+      </c>
+      <c r="K70">
+        <v>0.007684765327298042</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>0.04871526952768999</v>
+        <v>-0.09547909887064897</v>
       </c>
       <c r="C71">
-        <v>0.2998437003041377</v>
+        <v>-0.2998804646244382</v>
       </c>
       <c r="D71">
-        <v>0.03518459891950407</v>
+        <v>0.01224167753822389</v>
       </c>
       <c r="E71">
-        <v>-0.004422270873760692</v>
+        <v>0.0253426791819849</v>
       </c>
       <c r="F71">
-        <v>-0.01216200045106793</v>
+        <v>-0.0114771916794201</v>
       </c>
       <c r="G71">
-        <v>-0.008040248743025504</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.04562351800590199</v>
+      </c>
+      <c r="H71">
+        <v>-0.0313944275514331</v>
+      </c>
+      <c r="I71">
+        <v>-0.02959444437521244</v>
+      </c>
+      <c r="J71">
+        <v>0.02218994508239753</v>
+      </c>
+      <c r="K71">
+        <v>-0.02241202548379835</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>0.1372852989611185</v>
+        <v>-0.1427945130271912</v>
       </c>
       <c r="C72">
-        <v>0.03366128942229941</v>
+        <v>-0.01340551307217208</v>
       </c>
       <c r="D72">
-        <v>-0.2269796799211227</v>
+        <v>0.007713370007430633</v>
       </c>
       <c r="E72">
-        <v>-0.004807403527268857</v>
+        <v>-0.03156377637130458</v>
       </c>
       <c r="F72">
-        <v>-0.05859625793796433</v>
+        <v>0.08706625526289939</v>
       </c>
       <c r="G72">
-        <v>-0.05935175682027823</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.01614171861007851</v>
+      </c>
+      <c r="H72">
+        <v>0.02327078180088398</v>
+      </c>
+      <c r="I72">
+        <v>-0.009673256894531208</v>
+      </c>
+      <c r="J72">
+        <v>-0.06425096398573502</v>
+      </c>
+      <c r="K72">
+        <v>-0.1068188448389755</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>0.2849971981584277</v>
+        <v>-0.244040850503752</v>
       </c>
       <c r="C73">
-        <v>-0.1527347940913169</v>
+        <v>0.09569573693096291</v>
       </c>
       <c r="D73">
-        <v>0.05293211298986415</v>
+        <v>0.02782779933736336</v>
       </c>
       <c r="E73">
-        <v>-0.1432092892791328</v>
+        <v>0.1296836379381814</v>
       </c>
       <c r="F73">
-        <v>-0.282517285973038</v>
+        <v>-0.09811374604315738</v>
       </c>
       <c r="G73">
-        <v>0.3270087152604229</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.3071091653407381</v>
+      </c>
+      <c r="H73">
+        <v>0.2631048850122653</v>
+      </c>
+      <c r="I73">
+        <v>-0.3136037388786776</v>
+      </c>
+      <c r="J73">
+        <v>0.11922267198665</v>
+      </c>
+      <c r="K73">
+        <v>0.03433882587244048</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>0.1032810891882891</v>
+        <v>-0.1141313827737573</v>
       </c>
       <c r="C74">
-        <v>-0.03047932194566125</v>
+        <v>0.04350557977066608</v>
       </c>
       <c r="D74">
-        <v>0.004618872642465652</v>
+        <v>0.02230714881291446</v>
       </c>
       <c r="E74">
-        <v>-0.03451675228199684</v>
+        <v>0.007528534736275949</v>
       </c>
       <c r="F74">
-        <v>0.1186333908517682</v>
+        <v>-0.004039444976219012</v>
       </c>
       <c r="G74">
-        <v>0.02730799451152223</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.05392422997425157</v>
+      </c>
+      <c r="H74">
+        <v>0.09453897380696161</v>
+      </c>
+      <c r="I74">
+        <v>0.1150338996358531</v>
+      </c>
+      <c r="J74">
+        <v>-0.002539088778466562</v>
+      </c>
+      <c r="K74">
+        <v>-0.1076691605268456</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>0.09341987845260359</v>
+        <v>-0.1121058927595439</v>
       </c>
       <c r="C75">
-        <v>-0.01989516653648061</v>
+        <v>0.04288101020264624</v>
       </c>
       <c r="D75">
-        <v>-0.02457233397183139</v>
+        <v>0.007990552079312917</v>
       </c>
       <c r="E75">
-        <v>-0.04347499886316593</v>
+        <v>0.000596175309275654</v>
       </c>
       <c r="F75">
-        <v>0.1242448834654829</v>
+        <v>0.01387969792425302</v>
       </c>
       <c r="G75">
-        <v>0.03962041569118192</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.001709101999449837</v>
+      </c>
+      <c r="H75">
+        <v>0.05166329681418057</v>
+      </c>
+      <c r="I75">
+        <v>0.1491540114419833</v>
+      </c>
+      <c r="J75">
+        <v>-0.00938561425568899</v>
+      </c>
+      <c r="K75">
+        <v>-0.03948781553301085</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>0.139501022571458</v>
+        <v>-0.05369105955686197</v>
       </c>
       <c r="C76">
-        <v>-0.02797978637781215</v>
+        <v>0.01174935207962655</v>
       </c>
       <c r="D76">
-        <v>0.02318340968158915</v>
+        <v>0.02845122105275827</v>
       </c>
       <c r="E76">
-        <v>-0.0226024229170501</v>
+        <v>0.008563589098659891</v>
       </c>
       <c r="F76">
-        <v>0.2708940193546667</v>
+        <v>-0.03404460486518341</v>
       </c>
       <c r="G76">
-        <v>0.06917861948118871</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.04564258152222747</v>
+      </c>
+      <c r="H76">
+        <v>0.05023641406484743</v>
+      </c>
+      <c r="I76">
+        <v>0.1043854817308831</v>
+      </c>
+      <c r="J76">
+        <v>-0.0142824361545515</v>
+      </c>
+      <c r="K76">
+        <v>-0.09057731581640217</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>0.08255114419425619</v>
+        <v>-0.07597956987560264</v>
       </c>
       <c r="C77">
-        <v>0.002526857392088076</v>
+        <v>0.07866131408701266</v>
       </c>
       <c r="D77">
-        <v>0.04769721369113013</v>
+        <v>-0.007539264056192077</v>
       </c>
       <c r="E77">
-        <v>0.1164499635989943</v>
+        <v>0.01007825190647983</v>
       </c>
       <c r="F77">
-        <v>-0.2444517209792837</v>
+        <v>-0.04772487967124157</v>
       </c>
       <c r="G77">
-        <v>-0.134562488889568</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.09255697782662807</v>
+      </c>
+      <c r="H77">
+        <v>-0.2470762999075956</v>
+      </c>
+      <c r="I77">
+        <v>-0.2878294936398568</v>
+      </c>
+      <c r="J77">
+        <v>-0.03697866355408955</v>
+      </c>
+      <c r="K77">
+        <v>0.07261711890788047</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>0.2182319054800984</v>
+        <v>-0.1520455388908613</v>
       </c>
       <c r="C78">
-        <v>-0.06163008560039614</v>
+        <v>0.06863633055245687</v>
       </c>
       <c r="D78">
-        <v>0.07602165153099773</v>
+        <v>0.09473103099642595</v>
       </c>
       <c r="E78">
-        <v>0.1982356512364356</v>
+        <v>-0.2610496300738719</v>
       </c>
       <c r="F78">
-        <v>-0.04740872215870224</v>
+        <v>-0.04403466149534226</v>
       </c>
       <c r="G78">
-        <v>-0.1590240797361091</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.6569358133349411</v>
+      </c>
+      <c r="H78">
+        <v>-0.5532582848000978</v>
+      </c>
+      <c r="I78">
+        <v>0.2184529990970071</v>
+      </c>
+      <c r="J78">
+        <v>0.08479317232620708</v>
+      </c>
+      <c r="K78">
+        <v>0.07668404349638296</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>0.138712895420686</v>
+        <v>-0.1364984075780344</v>
       </c>
       <c r="C79">
-        <v>-0.007387384628037779</v>
+        <v>0.04168908264639158</v>
       </c>
       <c r="D79">
-        <v>-0.0001323245611727019</v>
+        <v>-0.007564136614907501</v>
       </c>
       <c r="E79">
-        <v>-0.03223660848401536</v>
+        <v>0.01510389870231839</v>
       </c>
       <c r="F79">
-        <v>0.1478762299773907</v>
+        <v>-0.004668086609246714</v>
       </c>
       <c r="G79">
-        <v>-0.01526748786879069</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>-0.0272227466565946</v>
+      </c>
+      <c r="H79">
+        <v>0.0552467727933075</v>
+      </c>
+      <c r="I79">
+        <v>0.1172165126641789</v>
+      </c>
+      <c r="J79">
+        <v>-0.007805577928325728</v>
+      </c>
+      <c r="K79">
+        <v>-0.1073700970237227</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>0.03350579030509872</v>
+        <v>-0.07060477886640371</v>
       </c>
       <c r="C80">
-        <v>-0.01055382521777283</v>
+        <v>0.04916965298402763</v>
       </c>
       <c r="D80">
-        <v>0.02080703385322575</v>
+        <v>0.04446651901090267</v>
       </c>
       <c r="E80">
-        <v>-0.03482715441501623</v>
+        <v>0.05390230780455695</v>
       </c>
       <c r="F80">
-        <v>-0.03951543612181191</v>
+        <v>0.00291718067005689</v>
       </c>
       <c r="G80">
-        <v>-0.05914349424116551</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.04062509943934061</v>
+      </c>
+      <c r="H80">
+        <v>-0.06253042919124167</v>
+      </c>
+      <c r="I80">
+        <v>0.1337538865817202</v>
+      </c>
+      <c r="J80">
+        <v>-0.063005473384858</v>
+      </c>
+      <c r="K80">
+        <v>0.2006200078860927</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>0.1133608436437674</v>
+        <v>-0.133844075430214</v>
       </c>
       <c r="C81">
-        <v>-0.0004308234928818719</v>
+        <v>0.04367292114576948</v>
       </c>
       <c r="D81">
-        <v>0.009920223797604299</v>
+        <v>0.006618303993143069</v>
       </c>
       <c r="E81">
-        <v>-0.02328911886141385</v>
+        <v>0.005404693304467874</v>
       </c>
       <c r="F81">
-        <v>0.1295612521742346</v>
+        <v>-0.009293491924782467</v>
       </c>
       <c r="G81">
-        <v>0.01368010622189013</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.04846877952709677</v>
+      </c>
+      <c r="H81">
+        <v>0.03801365185639778</v>
+      </c>
+      <c r="I81">
+        <v>0.1500067819499606</v>
+      </c>
+      <c r="J81">
+        <v>0.01388404393250256</v>
+      </c>
+      <c r="K81">
+        <v>-0.09118945457852902</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>0.1125798594845855</v>
+        <v>-0.14743929377966</v>
       </c>
       <c r="C82">
-        <v>-0.02382614240768906</v>
+        <v>0.04368190848520241</v>
       </c>
       <c r="D82">
-        <v>0.05072883252875317</v>
+        <v>0.01841550264210667</v>
       </c>
       <c r="E82">
-        <v>-0.08303198499224101</v>
+        <v>0.05931975208775122</v>
       </c>
       <c r="F82">
-        <v>0.2467815941227178</v>
+        <v>-0.02248791202428256</v>
       </c>
       <c r="G82">
-        <v>-0.02201104176973227</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>-0.05869362145028864</v>
+      </c>
+      <c r="H82">
+        <v>0.1344798578707682</v>
+      </c>
+      <c r="I82">
+        <v>0.226221522787775</v>
+      </c>
+      <c r="J82">
+        <v>0.0426297065077146</v>
+      </c>
+      <c r="K82">
+        <v>-0.02066125957478344</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>0.108182319319195</v>
+        <v>-0.09571479593977421</v>
       </c>
       <c r="C83">
-        <v>-0.05063498764700059</v>
+        <v>0.06322673717385081</v>
       </c>
       <c r="D83">
-        <v>0.05759767483087348</v>
+        <v>-0.0188788494683561</v>
       </c>
       <c r="E83">
-        <v>-0.02143051486821571</v>
+        <v>-0.01556811691253238</v>
       </c>
       <c r="F83">
-        <v>-0.07288935015929364</v>
+        <v>-0.01420187774353788</v>
       </c>
       <c r="G83">
-        <v>-0.06615765647468207</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.03197495072283427</v>
+      </c>
+      <c r="H83">
+        <v>-0.09015437430652121</v>
+      </c>
+      <c r="I83">
+        <v>-0.02721482213188346</v>
+      </c>
+      <c r="J83">
+        <v>-0.2817668444506826</v>
+      </c>
+      <c r="K83">
+        <v>0.01838685586486414</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>0.05090555598568267</v>
+        <v>-0.06158582144645815</v>
       </c>
       <c r="C84">
-        <v>-0.01586558235065948</v>
+        <v>0.002532212892732644</v>
       </c>
       <c r="D84">
-        <v>-0.05598128367574567</v>
+        <v>-0.02457243787718014</v>
       </c>
       <c r="E84">
-        <v>0.02575847387424884</v>
+        <v>0.03281055471335177</v>
       </c>
       <c r="F84">
-        <v>0.05128617518969313</v>
+        <v>0.009031286516246059</v>
       </c>
       <c r="G84">
-        <v>0.02525290942284795</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>-0.008295383823944709</v>
+      </c>
+      <c r="H84">
+        <v>0.01335735628186159</v>
+      </c>
+      <c r="I84">
+        <v>-0.03975025531488626</v>
+      </c>
+      <c r="J84">
+        <v>0.2760458260106284</v>
+      </c>
+      <c r="K84">
+        <v>0.4470626921003949</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>0.1025674969059621</v>
+        <v>-0.120143164415889</v>
       </c>
       <c r="C85">
-        <v>-0.02094997299086052</v>
+        <v>0.03272634271008253</v>
       </c>
       <c r="D85">
-        <v>0.02528500727397192</v>
+        <v>0.004610595164306614</v>
       </c>
       <c r="E85">
-        <v>-0.03755789994330932</v>
+        <v>0.02584769953848478</v>
       </c>
       <c r="F85">
-        <v>0.190745305722305</v>
+        <v>-0.02850211215047685</v>
       </c>
       <c r="G85">
-        <v>-0.01123177478959564</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.03359153469624444</v>
+      </c>
+      <c r="H85">
+        <v>0.04490610111075653</v>
+      </c>
+      <c r="I85">
+        <v>0.1604466408330916</v>
+      </c>
+      <c r="J85">
+        <v>-0.007338166738331376</v>
+      </c>
+      <c r="K85">
+        <v>-0.08015108943998225</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>0.06626017583764594</v>
+        <v>-0.1320642661593369</v>
       </c>
       <c r="C86">
-        <v>-0.01932699233998954</v>
+        <v>0.02630416176049068</v>
       </c>
       <c r="D86">
-        <v>0.08076713005504293</v>
+        <v>-0.9352990857774246</v>
       </c>
       <c r="E86">
-        <v>0.05218468921839014</v>
+        <v>-0.1660231155928345</v>
       </c>
       <c r="F86">
-        <v>-0.03534092443453166</v>
+        <v>0.08159344967547676</v>
       </c>
       <c r="G86">
-        <v>-0.06686679663683967</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.05151169708326761</v>
+      </c>
+      <c r="H86">
+        <v>-0.04808310851876715</v>
+      </c>
+      <c r="I86">
+        <v>0.07174705857549139</v>
+      </c>
+      <c r="J86">
+        <v>0.02782174822539464</v>
+      </c>
+      <c r="K86">
+        <v>0.09312502027362614</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>0.1036604231376007</v>
+        <v>-0.1162084824648337</v>
       </c>
       <c r="C87">
-        <v>-0.0609506663843808</v>
+        <v>0.09958979748695691</v>
       </c>
       <c r="D87">
-        <v>0.01614412477078286</v>
+        <v>0.004815853074054197</v>
       </c>
       <c r="E87">
-        <v>0.07547171557501775</v>
+        <v>0.006554915504032597</v>
       </c>
       <c r="F87">
-        <v>-0.04281327604348867</v>
+        <v>-0.03385118654428311</v>
       </c>
       <c r="G87">
-        <v>-0.1156538842516978</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.0682809671779443</v>
+      </c>
+      <c r="H87">
+        <v>-0.1394596364123908</v>
+      </c>
+      <c r="I87">
+        <v>-0.1388229127378696</v>
+      </c>
+      <c r="J87">
+        <v>-0.1546002826458588</v>
+      </c>
+      <c r="K87">
+        <v>0.05879579987413448</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>0.07020690385230066</v>
+        <v>-0.05750495004929512</v>
       </c>
       <c r="C88">
-        <v>-0.03946418753354344</v>
+        <v>0.03279700006882862</v>
       </c>
       <c r="D88">
-        <v>0.02131037391008428</v>
+        <v>0.0130091830625304</v>
       </c>
       <c r="E88">
-        <v>0.009082553579759442</v>
+        <v>0.04757692524649394</v>
       </c>
       <c r="F88">
-        <v>0.008723629096139111</v>
+        <v>0.002523755525749327</v>
       </c>
       <c r="G88">
-        <v>-0.05620022733151501</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.01418595118132731</v>
+      </c>
+      <c r="H88">
+        <v>-0.01790562432199458</v>
+      </c>
+      <c r="I88">
+        <v>0.02940212389497157</v>
+      </c>
+      <c r="J88">
+        <v>-0.01138645265365297</v>
+      </c>
+      <c r="K88">
+        <v>-0.05152472454866318</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>0.09349555531711434</v>
+        <v>-0.1481062248155788</v>
       </c>
       <c r="C89">
-        <v>0.3811468007227532</v>
+        <v>-0.371598144175596</v>
       </c>
       <c r="D89">
-        <v>0.09430134365793742</v>
+        <v>0.01672551709792141</v>
       </c>
       <c r="E89">
-        <v>0.01323556523411883</v>
+        <v>-0.01261404143598432</v>
       </c>
       <c r="F89">
-        <v>-0.02444057780157726</v>
+        <v>-0.06797185578715464</v>
       </c>
       <c r="G89">
-        <v>0.007726597659756515</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.007152171321108418</v>
+      </c>
+      <c r="H89">
+        <v>-0.04217911524977176</v>
+      </c>
+      <c r="I89">
+        <v>-0.006118362782820327</v>
+      </c>
+      <c r="J89">
+        <v>0.0166858775968862</v>
+      </c>
+      <c r="K89">
+        <v>0.06801990891080327</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>0.07154147152747221</v>
+        <v>-0.1107938728247522</v>
       </c>
       <c r="C90">
-        <v>0.2914660940603207</v>
+        <v>-0.2911405844446957</v>
       </c>
       <c r="D90">
-        <v>0.04257422544629048</v>
+        <v>0.001421533699546557</v>
       </c>
       <c r="E90">
-        <v>0.04683761247075642</v>
+        <v>0.02914985253146351</v>
       </c>
       <c r="F90">
-        <v>-0.04876684927987933</v>
+        <v>-0.01480685409820593</v>
       </c>
       <c r="G90">
-        <v>-0.02594337043805566</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.04209618543489819</v>
+      </c>
+      <c r="H90">
+        <v>-0.04483986569365317</v>
+      </c>
+      <c r="I90">
+        <v>-0.0516777938302557</v>
+      </c>
+      <c r="J90">
+        <v>0.01155972332260077</v>
+      </c>
+      <c r="K90">
+        <v>0.02845538283920435</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>0.08170623719490784</v>
+        <v>-0.0836049830600679</v>
       </c>
       <c r="C91">
-        <v>-0.02048534762162001</v>
+        <v>0.03461867386458597</v>
       </c>
       <c r="D91">
-        <v>0.01344397888683081</v>
+        <v>-0.01508471425679745</v>
       </c>
       <c r="E91">
-        <v>-0.02891670310285801</v>
+        <v>0.008679150493663359</v>
       </c>
       <c r="F91">
-        <v>0.09433240847503176</v>
+        <v>-0.01939637992166749</v>
       </c>
       <c r="G91">
-        <v>0.05679344409901738</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.0118317739985314</v>
+      </c>
+      <c r="H91">
+        <v>0.0532171823999523</v>
+      </c>
+      <c r="I91">
+        <v>0.09319095014387974</v>
+      </c>
+      <c r="J91">
+        <v>-0.01908893242438743</v>
+      </c>
+      <c r="K91">
+        <v>-0.04860043045235615</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>0.06545239114036229</v>
+        <v>-0.1214803675763815</v>
       </c>
       <c r="C92">
-        <v>0.3471483889236208</v>
+        <v>-0.3385776816318151</v>
       </c>
       <c r="D92">
-        <v>0.06362815857236957</v>
+        <v>0.01324970917056682</v>
       </c>
       <c r="E92">
-        <v>0.02871644444511185</v>
+        <v>-0.01317323291605828</v>
       </c>
       <c r="F92">
-        <v>-0.05153133597058275</v>
+        <v>-0.03242856455831078</v>
       </c>
       <c r="G92">
-        <v>0.02721292794305047</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.02469205251316881</v>
+      </c>
+      <c r="H92">
+        <v>-0.07191902328797155</v>
+      </c>
+      <c r="I92">
+        <v>0.02895895079009025</v>
+      </c>
+      <c r="J92">
+        <v>0.03617731708978712</v>
+      </c>
+      <c r="K92">
+        <v>0.01664295661985724</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>0.08294147472228063</v>
+        <v>-0.1160773809782696</v>
       </c>
       <c r="C93">
-        <v>0.3018999627480957</v>
+        <v>-0.3203272987269287</v>
       </c>
       <c r="D93">
-        <v>0.03656618742212209</v>
+        <v>-0.01197917277918694</v>
       </c>
       <c r="E93">
-        <v>0.02285585738529626</v>
+        <v>0.05107334853995191</v>
       </c>
       <c r="F93">
-        <v>-0.04029580372069592</v>
+        <v>-0.01480253918677156</v>
       </c>
       <c r="G93">
-        <v>0.02812350146653987</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.04023480898361644</v>
+      </c>
+      <c r="H93">
+        <v>-0.007911468265931502</v>
+      </c>
+      <c r="I93">
+        <v>-0.03556438145237571</v>
+      </c>
+      <c r="J93">
+        <v>0.004996697416699834</v>
+      </c>
+      <c r="K93">
+        <v>0.03552972548677009</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>0.09523345546399496</v>
+        <v>-0.1280515687248207</v>
       </c>
       <c r="C94">
-        <v>-0.0454317553572024</v>
+        <v>0.04964336471745388</v>
       </c>
       <c r="D94">
-        <v>-0.008486393980841746</v>
+        <v>0.02846938271253095</v>
       </c>
       <c r="E94">
-        <v>-0.01509097427520777</v>
+        <v>-0.002883403964180009</v>
       </c>
       <c r="F94">
-        <v>0.1460127044414083</v>
+        <v>-0.01720411741542246</v>
       </c>
       <c r="G94">
-        <v>0.04628682402821534</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.01374812866207349</v>
+      </c>
+      <c r="H94">
+        <v>0.08880766309759579</v>
+      </c>
+      <c r="I94">
+        <v>0.1181648002563705</v>
+      </c>
+      <c r="J94">
+        <v>0.02739577364937669</v>
+      </c>
+      <c r="K94">
+        <v>-0.05277540681017493</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>0.131048461797931</v>
+        <v>-0.1216806365726996</v>
       </c>
       <c r="C95">
-        <v>-0.07901082136945957</v>
+        <v>0.05969999349747079</v>
       </c>
       <c r="D95">
-        <v>0.06178432623492084</v>
+        <v>0.01575194559328216</v>
       </c>
       <c r="E95">
-        <v>0.06291135689939768</v>
+        <v>-0.01169515383769337</v>
       </c>
       <c r="F95">
-        <v>-0.09470830770791162</v>
+        <v>-0.05911355586293785</v>
       </c>
       <c r="G95">
-        <v>-0.1123274251828098</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.01746282005271693</v>
+      </c>
+      <c r="H95">
+        <v>-0.114157016448337</v>
+      </c>
+      <c r="I95">
+        <v>-0.03606647837622683</v>
+      </c>
+      <c r="J95">
+        <v>0.02188629193966918</v>
+      </c>
+      <c r="K95">
+        <v>0.1068658362107895</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>0.01016263626423132</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>-0.0006395366774077718</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>0.0001560058423294035</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>-0.007221215523491037</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>-0.001475131069482511</v>
       </c>
       <c r="G96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
+        <v>0.003258246743132841</v>
+      </c>
+      <c r="H96">
+        <v>-0.01922104950178191</v>
+      </c>
+      <c r="I96">
+        <v>-0.01737032220212898</v>
+      </c>
+      <c r="J96">
+        <v>-0.01641016292252519</v>
+      </c>
+      <c r="K96">
+        <v>-0.01919293420866137</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>0.1809393649598746</v>
+        <v>-0.1809862945495244</v>
       </c>
       <c r="C97">
-        <v>0.106123435317608</v>
+        <v>-0.007842429496948409</v>
       </c>
       <c r="D97">
-        <v>-0.9113831859185015</v>
+        <v>0.1631565941258016</v>
       </c>
       <c r="E97">
-        <v>0.08670509014840652</v>
+        <v>-0.4136495853829713</v>
       </c>
       <c r="F97">
-        <v>-0.0266021286548378</v>
+        <v>0.8339040338978027</v>
       </c>
       <c r="G97">
-        <v>-0.05075639602660406</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>-0.05074293477675661</v>
+      </c>
+      <c r="H97">
+        <v>0.1003494544583901</v>
+      </c>
+      <c r="I97">
+        <v>-0.08947962466576205</v>
+      </c>
+      <c r="J97">
+        <v>0.0621077083791606</v>
+      </c>
+      <c r="K97">
+        <v>-0.0006863262714491888</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>0.3237881069675931</v>
+        <v>-0.2678774199266298</v>
       </c>
       <c r="C98">
-        <v>-0.05930318135484558</v>
+        <v>0.03095172170724977</v>
       </c>
       <c r="D98">
-        <v>0.01011121246410599</v>
+        <v>-0.0110063598163845</v>
       </c>
       <c r="E98">
-        <v>-0.2357592150021409</v>
+        <v>-0.01124165458785061</v>
       </c>
       <c r="F98">
-        <v>-0.1524364649134035</v>
+        <v>-0.04026080255142964</v>
       </c>
       <c r="G98">
-        <v>0.277206474286249</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.2511424864868776</v>
+      </c>
+      <c r="H98">
+        <v>0.2681788845818834</v>
+      </c>
+      <c r="I98">
+        <v>0.08620114926463009</v>
+      </c>
+      <c r="J98">
+        <v>-0.3110345933749632</v>
+      </c>
+      <c r="K98">
+        <v>0.2648014634315518</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>0.08844362658155933</v>
+        <v>-0.05473761928118569</v>
       </c>
       <c r="C99">
-        <v>-0.02151221048199909</v>
+        <v>0.008423042974528691</v>
       </c>
       <c r="D99">
-        <v>0.004786213809880291</v>
+        <v>0.03340501217928209</v>
       </c>
       <c r="E99">
-        <v>-0.009942565007147334</v>
+        <v>-0.008377330824827344</v>
       </c>
       <c r="F99">
-        <v>-0.01416180038376484</v>
+        <v>-0.01887554315881581</v>
       </c>
       <c r="G99">
-        <v>-0.0276974445955828</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>0.01317977587409195</v>
+      </c>
+      <c r="H99">
+        <v>-0.012262959333599</v>
+      </c>
+      <c r="I99">
+        <v>-0.004244860041259557</v>
+      </c>
+      <c r="J99">
+        <v>0.02147848505484728</v>
+      </c>
+      <c r="K99">
+        <v>-0.06469467080261426</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>-0.0318269252728778</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>0.0513802728550966</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>0.165152458862183</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>0.04274760294010548</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>0.03587654593574408</v>
       </c>
       <c r="G100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
+        <v>-0.1578775428512722</v>
+      </c>
+      <c r="H100">
+        <v>0.06106426946677853</v>
+      </c>
+      <c r="I100">
+        <v>0.1617012173799488</v>
+      </c>
+      <c r="J100">
+        <v>-0.1812324120601368</v>
+      </c>
+      <c r="K100">
+        <v>0.6282014509806489</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>0.05865598603049801</v>
+        <v>-0.03835333386410739</v>
       </c>
       <c r="C101">
-        <v>-0.003333528891178724</v>
+        <v>0.009174188247119746</v>
       </c>
       <c r="D101">
-        <v>0.03477498236234434</v>
+        <v>0.0003544449057001825</v>
       </c>
       <c r="E101">
-        <v>0.03840869031993797</v>
+        <v>0.02424142962925219</v>
       </c>
       <c r="F101">
-        <v>0.02614086505648837</v>
+        <v>-0.01761816828413131</v>
       </c>
       <c r="G101">
-        <v>-0.0431324483286543</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.07772368416804956</v>
+      </c>
+      <c r="H101">
+        <v>-0.04042432911362901</v>
+      </c>
+      <c r="I101">
+        <v>0.05593668962292725</v>
+      </c>
+      <c r="J101">
+        <v>-0.05623519785722488</v>
+      </c>
+      <c r="K101">
+        <v>-0.05862961632874368</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3046,10 +4270,22 @@
       <c r="G102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:7">
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3069,10 +4305,22 @@
       <c r="G103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4338,18 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
